--- a/simulations/raw_inclusion_exclusion/Oud_2018 IEC/output/tables/time_to_discovery/tds_sim.xlsx
+++ b/simulations/raw_inclusion_exclusion/Oud_2018 IEC/output/tables/time_to_discovery/tds_sim.xlsx
@@ -414,10 +414,10 @@
         <v>84</v>
       </c>
       <c r="C2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D2">
-        <v>89.5</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -428,10 +428,10 @@
         <v>87</v>
       </c>
       <c r="C3">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D3">
-        <v>91.5</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -442,10 +442,10 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -456,10 +456,10 @@
         <v>215</v>
       </c>
       <c r="C5">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D5">
-        <v>225.5</v>
+        <v>221.5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -470,10 +470,10 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -484,10 +484,10 @@
         <v>368</v>
       </c>
       <c r="C7">
-        <v>366</v>
+        <v>290</v>
       </c>
       <c r="D7">
-        <v>367</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -498,10 +498,10 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>27.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -509,10 +509,10 @@
         <v>279</v>
       </c>
       <c r="C9">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>75</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -523,10 +523,10 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -537,10 +537,10 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>49.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -551,10 +551,10 @@
         <v>65</v>
       </c>
       <c r="C12">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D12">
-        <v>51.5</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -565,10 +565,10 @@
         <v>217</v>
       </c>
       <c r="C13">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D13">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -579,10 +579,10 @@
         <v>80</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="D14">
-        <v>45.5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -593,10 +593,10 @@
         <v>23</v>
       </c>
       <c r="C15">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D15">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -607,10 +607,10 @@
         <v>26</v>
       </c>
       <c r="C16">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D16">
-        <v>30.5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -621,10 +621,10 @@
         <v>66</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D17">
-        <v>38</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -635,10 +635,10 @@
         <v>73</v>
       </c>
       <c r="C18">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D18">
-        <v>66</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -649,10 +649,10 @@
         <v>13</v>
       </c>
       <c r="C19">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="D19">
-        <v>51</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -663,10 +663,10 @@
         <v>161</v>
       </c>
       <c r="C20">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D20">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -677,10 +677,10 @@
         <v>62</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="D21">
-        <v>41.5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -691,7 +691,7 @@
         <v>83.05263157894737</v>
       </c>
       <c r="C22">
-        <v>94.40000000000001</v>
+        <v>77.40000000000001</v>
       </c>
     </row>
   </sheetData>
